--- a/sample_interviewers.xlsx
+++ b/sample_interviewers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/128605aac916e8c1/Pictures/Documents/new_pixcel/hiring_backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_0957D5479642B64EE83FECB656B8B6FFD8BE95A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA3B02F8-15A6-47A7-8EAF-DD0BA9AE23E4}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_0957D5479642B64EE83FECB656B8B6FFD8BE95A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{192CAA31-A7FA-4FBE-A839-A0E889474DA1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>RQ0001</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Technical Round-1 &amp; 2</t>
   </si>
   <si>
-    <t>kumar.sachidanand11@gmail.com</t>
-  </si>
-  <si>
     <t>8904957029</t>
   </si>
   <si>
@@ -100,16 +94,22 @@
     <t>17:00:00</t>
   </si>
   <si>
-    <t>RQ0002</t>
-  </si>
-  <si>
     <t>Anand</t>
   </si>
   <si>
     <t>Sivakumar</t>
   </si>
   <si>
-    <t>anand040593@gmail.com</t>
+    <t>RQ0004</t>
+  </si>
+  <si>
+    <t>kumar1.sachidanand11@gmail.com</t>
+  </si>
+  <si>
+    <t>RQ0003</t>
+  </si>
+  <si>
+    <t>anand40593@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -173,6 +173,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,7 +467,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,83 +512,84 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{CDF52347-5802-43D4-AFC6-81D5E4E4FEAF}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{FA6D47ED-6448-442C-A607-B418049BCFC0}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sample_interviewers.xlsx
+++ b/sample_interviewers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/128605aac916e8c1/Pictures/Documents/new_pixcel/hiring_backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_0957D5479642B64EE83FECB656B8B6FFD8BE95A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{192CAA31-A7FA-4FBE-A839-A0E889474DA1}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_0957D5479642B64EE83FECB656B8B6FFD8BE95A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C32BD4C-2B3E-4350-AB04-E9B8A14BF8E2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>req_id</t>
   </si>
@@ -79,9 +79,6 @@
     <t>8904957029</t>
   </si>
   <si>
-    <t>2025-06-25</t>
-  </si>
-  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -100,16 +97,13 @@
     <t>Sivakumar</t>
   </si>
   <si>
-    <t>RQ0004</t>
-  </si>
-  <si>
-    <t>kumar1.sachidanand11@gmail.com</t>
-  </si>
-  <si>
-    <t>RQ0003</t>
-  </si>
-  <si>
     <t>anand40593@gmail.com</t>
+  </si>
+  <si>
+    <t>RQ0001</t>
+  </si>
+  <si>
+    <t>RQ0002</t>
   </si>
 </sst>
 </file>
@@ -154,9 +148,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -467,10 +462,13 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -533,33 +531,33 @@
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2">
+        <v>45837</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -571,19 +569,19 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>19</v>
+      <c r="J3" s="2">
+        <v>45837</v>
       </c>
       <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/sample_interviewers.xlsx
+++ b/sample_interviewers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/128605aac916e8c1/Pictures/Documents/new_pixcel/hiring_backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_0957D5479642B64EE83FECB656B8B6FFD8BE95A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C32BD4C-2B3E-4350-AB04-E9B8A14BF8E2}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_0957D5479642B64EE83FECB656B8B6FFD8BE95A7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C060CA6-01D2-4EC9-A4F5-BA32933BD322}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interviewers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>req_id</t>
   </si>
@@ -61,21 +61,12 @@
     <t>ABC</t>
   </si>
   <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>Sachidanand</t>
-  </si>
-  <si>
     <t>PM</t>
   </si>
   <si>
     <t>Online</t>
   </si>
   <si>
-    <t>Technical Round-1 &amp; 2</t>
-  </si>
-  <si>
     <t>8904957029</t>
   </si>
   <si>
@@ -103,7 +94,10 @@
     <t>RQ0001</t>
   </si>
   <si>
-    <t>RQ0002</t>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Technical</t>
   </si>
 </sst>
 </file>
@@ -462,11 +456,13 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M4" sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -510,78 +506,78 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="2">
+        <v>45870</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2">
-        <v>45837</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" s="2">
+        <v>45871</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2">
-        <v>45837</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
